--- a/Record Inventory Template_jirisotech.xlsx
+++ b/Record Inventory Template_jirisotech.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\SME's_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64A7A81-A231-4C07-8B19-893A4C5E5737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050940C1-78BF-4BC2-8F71-87135580FDCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F0D91D05-F013-40B6-AD0A-8368FD502387}"/>
   </bookViews>
